--- a/doc/Connecteurs-Import/Siham/Doc_et_MOP/Mapping_Siham_Ose/B_Mapping_STATUT_SIHAM-OSE_v13.xlsx
+++ b/doc/Connecteurs-Import/Siham/Doc_et_MOP/Mapping_Siham_Ose/B_Mapping_STATUT_SIHAM-OSE_v13.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -631,9 +631,6 @@
     <t>CONV_MCE</t>
   </si>
   <si>
-    <t>Fonction UPD2 (MCE) ou (UD1 à UD64)</t>
-  </si>
-  <si>
     <t>Autres HB…</t>
   </si>
   <si>
@@ -747,9 +744,6 @@
     <t>Fonction UE01 (Mis. Ens. Conv.)</t>
   </si>
   <si>
-    <t>07/07/2020 : v12 : modifier règle HB101 + fonction UE01 en  HB% + UE01</t>
-  </si>
-  <si>
     <t>Service partagé</t>
   </si>
   <si>
@@ -763,13 +757,33 @@
   </si>
   <si>
     <t>14/12/2020 : v13 : ajouter règle  HB112 + emploi UEXTMAD_02 =&gt; nouveau statut</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fonction UPD2 (MCE) ou (UD1 à UD64)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(même si UO HX% PART EXT UM)</t>
+    </r>
+  </si>
+  <si>
+    <t>27/04/21 : V14 :  règle HB + MCE étendue aussi à ceux qui sont complètement HORS UM (UO HX%)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -876,13 +890,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1079,7 +1086,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1259,14 +1266,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1280,29 +1282,10 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1320,6 +1303,25 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1642,9 +1644,9 @@
   </sheetPr>
   <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1664,21 +1666,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="68" t="s">
-        <v>182</v>
-      </c>
-      <c r="G1" s="65"/>
-      <c r="H1" s="66"/>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F2" s="81" t="s">
+      <c r="F1" s="79" t="s">
+        <v>185</v>
+      </c>
+      <c r="G1" s="79"/>
+      <c r="H1" s="80"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F2" s="86" t="s">
         <v>187</v>
       </c>
-      <c r="G2" s="82"/>
-      <c r="H2" s="83"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="86"/>
     </row>
     <row r="3" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -1686,23 +1689,23 @@
       </c>
     </row>
     <row r="4" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
       <c r="L4" s="59" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -1723,7 +1726,7 @@
         <v>64</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>65</v>
@@ -1738,7 +1741,7 @@
         <v>60</v>
       </c>
       <c r="L5" s="60" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -1759,7 +1762,7 @@
         <v>4</v>
       </c>
       <c r="G6" s="58" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H6" s="24" t="s">
         <v>66</v>
@@ -1774,7 +1777,7 @@
         <v>9999</v>
       </c>
       <c r="L6" s="61" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -1783,7 +1786,7 @@
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D7" s="26"/>
       <c r="E7" s="27" t="s">
@@ -1793,7 +1796,7 @@
         <v>116</v>
       </c>
       <c r="G7" s="58" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H7" s="24" t="s">
         <v>66</v>
@@ -1808,7 +1811,7 @@
         <v>9999</v>
       </c>
       <c r="L7" s="61" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -1827,7 +1830,7 @@
         <v>8</v>
       </c>
       <c r="G8" s="58" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H8" s="24" t="s">
         <v>66</v>
@@ -1842,7 +1845,7 @@
         <v>9999</v>
       </c>
       <c r="L8" s="61" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1863,7 +1866,7 @@
         <v>6</v>
       </c>
       <c r="G9" s="58" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H9" s="24" t="s">
         <v>66</v>
@@ -1878,7 +1881,7 @@
         <v>9999</v>
       </c>
       <c r="L9" s="61" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1893,11 +1896,11 @@
       <c r="E10" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="67" t="s">
-        <v>183</v>
+      <c r="F10" s="30" t="s">
+        <v>181</v>
       </c>
       <c r="G10" s="58" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H10" s="31" t="s">
         <v>66</v>
@@ -1912,7 +1915,7 @@
         <v>9999</v>
       </c>
       <c r="L10" s="61" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -1931,7 +1934,7 @@
         <v>70</v>
       </c>
       <c r="G11" s="58" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H11" s="24" t="s">
         <v>66</v>
@@ -1946,7 +1949,7 @@
         <v>9999</v>
       </c>
       <c r="L11" s="61" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -1965,7 +1968,7 @@
         <v>71</v>
       </c>
       <c r="G12" s="58" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H12" s="24" t="s">
         <v>66</v>
@@ -1980,7 +1983,7 @@
         <v>9999</v>
       </c>
       <c r="L12" s="61" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -2014,7 +2017,7 @@
         <v>9999</v>
       </c>
       <c r="L13" s="61" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2048,7 +2051,7 @@
         <v>9999</v>
       </c>
       <c r="L14" s="61" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -2080,23 +2083,23 @@
       <c r="K16" s="35"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="87" t="s">
+      <c r="A17" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="88"/>
-      <c r="C17" s="88"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="89" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" s="89"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="89"/>
-      <c r="J17" s="89"/>
-      <c r="K17" s="89"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="77"/>
       <c r="L17" s="59" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -2117,7 +2120,7 @@
         <v>2</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H18" s="41" t="s">
         <v>49</v>
@@ -2132,7 +2135,7 @@
         <v>60</v>
       </c>
       <c r="L18" s="60" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -2152,8 +2155,8 @@
       <c r="F19" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="74" t="s">
-        <v>171</v>
+      <c r="G19" s="71" t="s">
+        <v>170</v>
       </c>
       <c r="H19" s="24" t="s">
         <v>66</v>
@@ -2168,7 +2171,7 @@
         <v>64</v>
       </c>
       <c r="L19" s="64" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -2186,8 +2189,8 @@
       <c r="F20" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="74" t="s">
-        <v>172</v>
+      <c r="G20" s="71" t="s">
+        <v>171</v>
       </c>
       <c r="H20" s="24" t="s">
         <v>66</v>
@@ -2202,7 +2205,7 @@
         <v>192</v>
       </c>
       <c r="L20" s="64" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -2220,8 +2223,8 @@
       <c r="F21" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="74" t="s">
-        <v>172</v>
+      <c r="G21" s="71" t="s">
+        <v>171</v>
       </c>
       <c r="H21" s="24" t="s">
         <v>66</v>
@@ -2236,7 +2239,7 @@
         <v>96</v>
       </c>
       <c r="L21" s="64" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -2254,8 +2257,8 @@
       <c r="F22" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="G22" s="74" t="s">
-        <v>171</v>
+      <c r="G22" s="71" t="s">
+        <v>170</v>
       </c>
       <c r="H22" s="24" t="s">
         <v>66</v>
@@ -2270,7 +2273,7 @@
         <v>9999</v>
       </c>
       <c r="L22" s="64" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -2288,8 +2291,8 @@
       <c r="F23" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="G23" s="74" t="s">
-        <v>171</v>
+      <c r="G23" s="71" t="s">
+        <v>170</v>
       </c>
       <c r="H23" s="24" t="s">
         <v>66</v>
@@ -2304,7 +2307,7 @@
         <v>9999</v>
       </c>
       <c r="L23" s="64" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -2322,8 +2325,8 @@
       <c r="F24" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G24" s="74" t="s">
-        <v>172</v>
+      <c r="G24" s="71" t="s">
+        <v>171</v>
       </c>
       <c r="H24" s="24" t="s">
         <v>66</v>
@@ -2338,7 +2341,7 @@
         <v>9999</v>
       </c>
       <c r="L24" s="64" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -2356,8 +2359,8 @@
       <c r="F25" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="G25" s="74" t="s">
-        <v>172</v>
+      <c r="G25" s="71" t="s">
+        <v>171</v>
       </c>
       <c r="H25" s="24" t="s">
         <v>66</v>
@@ -2372,12 +2375,12 @@
         <v>9999</v>
       </c>
       <c r="L25" s="64" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>24</v>
@@ -2390,8 +2393,8 @@
       <c r="F26" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="G26" s="74" t="s">
-        <v>172</v>
+      <c r="G26" s="71" t="s">
+        <v>171</v>
       </c>
       <c r="H26" s="24" t="s">
         <v>66</v>
@@ -2406,7 +2409,7 @@
         <v>9999</v>
       </c>
       <c r="L26" s="64" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -2426,8 +2429,8 @@
       <c r="F27" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="G27" s="74" t="s">
-        <v>171</v>
+      <c r="G27" s="71" t="s">
+        <v>170</v>
       </c>
       <c r="H27" s="24" t="s">
         <v>66</v>
@@ -2442,7 +2445,7 @@
         <v>9999</v>
       </c>
       <c r="L27" s="64" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -2462,8 +2465,8 @@
       <c r="F28" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="G28" s="74" t="s">
-        <v>171</v>
+      <c r="G28" s="71" t="s">
+        <v>170</v>
       </c>
       <c r="H28" s="24" t="s">
         <v>66</v>
@@ -2478,7 +2481,7 @@
         <v>9999</v>
       </c>
       <c r="L28" s="64" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -2498,8 +2501,8 @@
       <c r="F29" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="G29" s="74" t="s">
-        <v>171</v>
+      <c r="G29" s="71" t="s">
+        <v>170</v>
       </c>
       <c r="H29" s="24" t="s">
         <v>66</v>
@@ -2515,7 +2518,7 @@
         <v>517</v>
       </c>
       <c r="L29" s="64" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -2535,8 +2538,8 @@
       <c r="F30" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="G30" s="74" t="s">
-        <v>171</v>
+      <c r="G30" s="71" t="s">
+        <v>170</v>
       </c>
       <c r="H30" s="24" t="s">
         <v>66</v>
@@ -2552,7 +2555,7 @@
         <v>325</v>
       </c>
       <c r="L30" s="64" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -2586,7 +2589,7 @@
         <v>187</v>
       </c>
       <c r="L31" s="64" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2620,7 +2623,7 @@
         <v>187</v>
       </c>
       <c r="L32" s="64" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2652,23 +2655,23 @@
       <c r="K34" s="35"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="87" t="s">
+      <c r="A35" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="88"/>
-      <c r="C35" s="88"/>
-      <c r="D35" s="88"/>
-      <c r="E35" s="89" t="s">
-        <v>1</v>
-      </c>
-      <c r="F35" s="89"/>
-      <c r="G35" s="89"/>
-      <c r="H35" s="89"/>
-      <c r="I35" s="89"/>
-      <c r="J35" s="89"/>
-      <c r="K35" s="89"/>
+      <c r="B35" s="76"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="77"/>
+      <c r="J35" s="77"/>
+      <c r="K35" s="77"/>
       <c r="L35" s="59" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:13" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -2704,7 +2707,7 @@
         <v>60</v>
       </c>
       <c r="L36" s="60" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2724,8 +2727,8 @@
       <c r="F37" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="G37" s="70" t="s">
-        <v>173</v>
+      <c r="G37" s="67" t="s">
+        <v>172</v>
       </c>
       <c r="H37" s="50" t="s">
         <v>5</v>
@@ -2740,7 +2743,7 @@
         <v>9999</v>
       </c>
       <c r="L37" s="63" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2760,8 +2763,8 @@
       <c r="F38" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="G38" s="70" t="s">
-        <v>173</v>
+      <c r="G38" s="67" t="s">
+        <v>172</v>
       </c>
       <c r="H38" s="50" t="s">
         <v>5</v>
@@ -2776,7 +2779,7 @@
         <v>9999</v>
       </c>
       <c r="L38" s="63" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2796,8 +2799,8 @@
       <c r="F39" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G39" s="70" t="s">
-        <v>173</v>
+      <c r="G39" s="67" t="s">
+        <v>172</v>
       </c>
       <c r="H39" s="50" t="s">
         <v>5</v>
@@ -2812,43 +2815,43 @@
         <v>9999</v>
       </c>
       <c r="L39" s="63" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" s="71" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="75" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" s="68" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="B40" s="76" t="s">
+      <c r="B40" s="82" t="s">
+        <v>182</v>
+      </c>
+      <c r="C40" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="82"/>
+      <c r="E40" s="82" t="s">
         <v>184</v>
       </c>
-      <c r="C40" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="D40" s="76"/>
-      <c r="E40" s="76" t="s">
-        <v>186</v>
-      </c>
-      <c r="F40" s="77" t="s">
-        <v>185</v>
-      </c>
-      <c r="G40" s="78" t="s">
-        <v>173</v>
-      </c>
-      <c r="H40" s="79" t="s">
+      <c r="F40" s="83" t="s">
+        <v>183</v>
+      </c>
+      <c r="G40" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="H40" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="I40" s="76">
+      <c r="I40" s="82">
         <v>384</v>
       </c>
-      <c r="J40" s="76">
-        <v>1</v>
-      </c>
-      <c r="K40" s="76">
+      <c r="J40" s="82">
+        <v>1</v>
+      </c>
+      <c r="K40" s="82">
         <v>9999</v>
       </c>
-      <c r="L40" s="80" t="s">
-        <v>176</v>
+      <c r="L40" s="85" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2856,7 +2859,7 @@
         <v>93</v>
       </c>
       <c r="B41" s="47" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C41" s="47"/>
       <c r="D41" s="47"/>
@@ -2866,10 +2869,10 @@
       <c r="F41" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="G41" s="70" t="s">
-        <v>173</v>
-      </c>
-      <c r="H41" s="69" t="s">
+      <c r="G41" s="67" t="s">
+        <v>172</v>
+      </c>
+      <c r="H41" s="66" t="s">
         <v>5</v>
       </c>
       <c r="I41" s="47">
@@ -2882,18 +2885,18 @@
         <v>9999</v>
       </c>
       <c r="L41" s="63" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B42" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="C42" s="30" t="s">
         <v>180</v>
-      </c>
-      <c r="C42" s="30" t="s">
-        <v>181</v>
       </c>
       <c r="D42" s="47"/>
       <c r="E42" s="47" t="s">
@@ -2902,10 +2905,10 @@
       <c r="F42" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="G42" s="70" t="s">
-        <v>173</v>
-      </c>
-      <c r="H42" s="69" t="s">
+      <c r="G42" s="67" t="s">
+        <v>172</v>
+      </c>
+      <c r="H42" s="66" t="s">
         <v>5</v>
       </c>
       <c r="I42" s="47">
@@ -2918,16 +2921,16 @@
         <v>9999</v>
       </c>
       <c r="L42" s="63" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="43" spans="1:13" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="51" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B43" s="29"/>
-      <c r="C43" s="29" t="s">
-        <v>154</v>
+      <c r="C43" s="65" t="s">
+        <v>186</v>
       </c>
       <c r="D43" s="29"/>
       <c r="E43" s="29" t="s">
@@ -2936,8 +2939,8 @@
       <c r="F43" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="G43" s="70" t="s">
-        <v>173</v>
+      <c r="G43" s="67" t="s">
+        <v>172</v>
       </c>
       <c r="H43" s="52" t="s">
         <v>5</v>
@@ -2952,12 +2955,12 @@
         <v>64</v>
       </c>
       <c r="L43" s="64" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="53" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B44" s="15" t="s">
         <v>36</v>
@@ -2986,12 +2989,12 @@
         <v>96</v>
       </c>
       <c r="L44" s="64" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="53" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B45" s="15" t="s">
         <v>36</v>
@@ -3020,12 +3023,12 @@
         <v>96</v>
       </c>
       <c r="L45" s="64" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="72" t="s">
-        <v>157</v>
+      <c r="A46" s="69" t="s">
+        <v>156</v>
       </c>
       <c r="B46" s="15" t="s">
         <v>94</v>
@@ -3054,15 +3057,15 @@
         <v>9999</v>
       </c>
       <c r="L46" s="62" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M46" s="63" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="72" t="s">
-        <v>157</v>
+      <c r="A47" s="69" t="s">
+        <v>156</v>
       </c>
       <c r="B47" s="15" t="s">
         <v>94</v>
@@ -3091,15 +3094,15 @@
         <v>9999</v>
       </c>
       <c r="L47" s="62" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M47" s="63" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="72" t="s">
-        <v>157</v>
+      <c r="A48" s="69" t="s">
+        <v>156</v>
       </c>
       <c r="B48" s="15" t="s">
         <v>94</v>
@@ -3128,12 +3131,12 @@
         <v>187</v>
       </c>
       <c r="L48" s="64" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="72" t="s">
-        <v>157</v>
+      <c r="A49" s="69" t="s">
+        <v>156</v>
       </c>
       <c r="B49" s="12" t="s">
         <v>94</v>
@@ -3162,21 +3165,21 @@
         <v>187</v>
       </c>
       <c r="L49" s="64" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="72" t="s">
-        <v>161</v>
+      <c r="A50" s="69" t="s">
+        <v>160</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E50" s="13" t="s">
         <v>87</v>
@@ -3198,21 +3201,21 @@
         <v>96</v>
       </c>
       <c r="L50" s="64" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="72" t="s">
-        <v>161</v>
+      <c r="A51" s="69" t="s">
+        <v>160</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E51" s="13" t="s">
         <v>88</v>
@@ -3234,21 +3237,21 @@
         <v>96</v>
       </c>
       <c r="L51" s="64" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="72" t="s">
-        <v>161</v>
+      <c r="A52" s="69" t="s">
+        <v>160</v>
       </c>
       <c r="B52" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C52" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="C52" s="15" t="s">
-        <v>165</v>
-      </c>
       <c r="D52" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E52" s="13" t="s">
         <v>72</v>
@@ -3270,24 +3273,24 @@
         <v>9999</v>
       </c>
       <c r="L52" s="62" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M52" s="63" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="72" t="s">
-        <v>161</v>
+      <c r="A53" s="69" t="s">
+        <v>160</v>
       </c>
       <c r="B53" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C53" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="C53" s="15" t="s">
-        <v>165</v>
-      </c>
       <c r="D53" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E53" s="13" t="s">
         <v>75</v>
@@ -3309,24 +3312,24 @@
         <v>9999</v>
       </c>
       <c r="L53" s="62" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M53" s="63" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="72" t="s">
-        <v>161</v>
+      <c r="A54" s="69" t="s">
+        <v>160</v>
       </c>
       <c r="B54" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C54" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="C54" s="15" t="s">
-        <v>165</v>
-      </c>
       <c r="D54" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E54" s="13" t="s">
         <v>83</v>
@@ -3348,21 +3351,21 @@
         <v>187</v>
       </c>
       <c r="L54" s="64" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="73" t="s">
-        <v>161</v>
+      <c r="A55" s="70" t="s">
+        <v>160</v>
       </c>
       <c r="B55" s="54" t="s">
+        <v>163</v>
+      </c>
+      <c r="C55" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="C55" s="54" t="s">
-        <v>165</v>
-      </c>
       <c r="D55" s="55" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E55" s="56" t="s">
         <v>84</v>
@@ -3384,7 +3387,7 @@
         <v>187</v>
       </c>
       <c r="L55" s="64" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
